--- a/-80_stocks_Hendry_2024july22.xlsx
+++ b/-80_stocks_Hendry_2024july22.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry Lab/lab_protocols/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A4BDAF-7AF5-424D-A483-ECF08934E45B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106E2C01-ED95-1D47-B355-B94FB5FFA6B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="0" windowWidth="26440" windowHeight="18000" activeTab="1" xr2:uid="{46E2711B-3907-E641-996B-8A68437A57BF}"/>
   </bookViews>
@@ -2244,10 +2244,10 @@
   <dimension ref="A1:L211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B111" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B106" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I128" sqref="I128"/>
+      <selection pane="bottomRight" activeCell="A126" sqref="A126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/-80_stocks_Hendry_2024july22.xlsx
+++ b/-80_stocks_Hendry_2024july22.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry Lab/lab_protocols/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106E2C01-ED95-1D47-B355-B94FB5FFA6B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3539982F-B8BB-554A-97EC-03078295463D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="0" windowWidth="26440" windowHeight="18000" activeTab="1" xr2:uid="{46E2711B-3907-E641-996B-8A68437A57BF}"/>
   </bookViews>
@@ -1678,7 +1678,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1743,6 +1743,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2244,10 +2246,10 @@
   <dimension ref="A1:L211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B106" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A126" sqref="A126"/>
+      <selection pane="bottomRight" activeCell="J202" sqref="J202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6694,7 +6696,7 @@
         <v>45471</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>449</v>
       </c>
@@ -6714,7 +6716,7 @@
         <v>45614</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>21</v>
       </c>
@@ -6746,37 +6748,39 @@
         <v>44981</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A211" t="s">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A211" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B211" t="s">
+      <c r="B211" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="C211" t="s">
+      <c r="C211" s="24" t="s">
         <v>482</v>
       </c>
-      <c r="D211" t="s">
+      <c r="D211" s="24" t="s">
         <v>483</v>
       </c>
-      <c r="E211" t="s">
+      <c r="E211" s="24" t="s">
         <v>484</v>
       </c>
-      <c r="F211" t="s">
+      <c r="F211" s="24" t="s">
         <v>444</v>
       </c>
-      <c r="G211" t="s">
+      <c r="G211" s="24" t="s">
         <v>479</v>
       </c>
-      <c r="H211" t="s">
+      <c r="H211" s="24" t="s">
         <v>480</v>
       </c>
-      <c r="J211" t="s">
+      <c r="I211" s="24"/>
+      <c r="J211" s="24" t="s">
         <v>485</v>
       </c>
-      <c r="K211" s="21">
+      <c r="K211" s="25">
         <v>44981</v>
       </c>
+      <c r="L211" s="24"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K998">
